--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3088539.181429653</v>
+        <v>3087790.76112325</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5736895.963613646</v>
+        <v>5851605.615330301</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169739.126259459</v>
+        <v>864456.6793124477</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6239004.606230642</v>
+        <v>6301661.002825161</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>132.3848771897998</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>110.0334828935835</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>55.04634263617033</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>70.90884974000093</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -831,13 +831,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>213.1760542313935</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
@@ -907,7 +907,7 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>181.835229670613</v>
       </c>
       <c r="G5" t="n">
         <v>4.641001266096112</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -961,10 +961,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>101.6302174766832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028016</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
         <v>119.2878878475953</v>
@@ -1056,25 +1056,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>71.31157381942172</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>79.63707884930164</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1138,7 +1138,7 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>388.9364112694136</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1147,13 +1147,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>193.4795097704822</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>28.77201408958031</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>256.8454395874278</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
-        <v>380.697871601935</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
         <v>387.3211661995113</v>
@@ -1390,7 +1390,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I11" t="n">
-        <v>55.9893033297596</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>44.65330832841596</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037913</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501638</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T13" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U13" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>246.7800261198764</v>
@@ -1596,7 +1596,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>185.9283202010047</v>
       </c>
     </row>
     <row r="14">
@@ -1767,7 +1767,7 @@
         <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>88.0431457716974</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>75.60603984991818</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037913</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501638</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T16" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U16" t="n">
         <v>250.4712242529991</v>
@@ -1827,13 +1827,13 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995121</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G17" t="n">
         <v>375.1420595397581</v>
@@ -1864,7 +1864,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>55.9893033297596</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>96.30873100143995</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501638</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T19" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U19" t="n">
         <v>250.4712242529991</v>
@@ -2070,7 +2070,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>42.06023579521895</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I20" t="n">
-        <v>55.9893033297596</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>104.4293227275031</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T20" t="n">
         <v>190.4854774862718</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>126.2210835114338</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>33.12209635668106</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501638</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T22" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U22" t="n">
         <v>250.4712242529991</v>
@@ -2304,10 +2304,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.9893033297596</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>103.1885574966858</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037913</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501638</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U25" t="n">
         <v>250.4712242529991</v>
@@ -2541,10 +2541,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
-        <v>14.01643745131441</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.4479524106874</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C26" t="n">
-        <v>390.3523293227055</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D26" t="n">
-        <v>384.748275150713</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E26" t="n">
-        <v>394.5257978711152</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F26" t="n">
-        <v>193.7301984309787</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G26" t="n">
-        <v>388.969985808939</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H26" t="n">
-        <v>292.1283969414021</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I26" t="n">
-        <v>69.81722959894047</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>118.257248996683</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T26" t="n">
-        <v>204.3134037554527</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U26" t="n">
-        <v>238.8188713659279</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V26" t="n">
-        <v>330.668163659727</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W26" t="n">
-        <v>364.251682399026</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X26" t="n">
-        <v>380.9659483955799</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y26" t="n">
-        <v>381.2562908642337</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>153.7114232567436</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>143.6306915232066</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>68.74897568419725</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S28" t="n">
-        <v>168.8568349817317</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
-        <v>221.4822361759078</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>264.29915052218</v>
+        <v>72.54121871509993</v>
       </c>
       <c r="V28" t="n">
-        <v>255.4758721527162</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>220.2894080617563</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>140.4836132926792</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.4479524106874</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C29" t="n">
-        <v>390.3523293227055</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D29" t="n">
-        <v>384.748275150713</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E29" t="n">
-        <v>187.1069038334016</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F29" t="n">
-        <v>401.1490924686922</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G29" t="n">
-        <v>388.969985808939</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H29" t="n">
-        <v>292.1283969414021</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I29" t="n">
-        <v>69.81722959894047</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>118.257248996683</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T29" t="n">
-        <v>204.3134037554527</v>
+        <v>190.4854774862723</v>
       </c>
       <c r="U29" t="n">
-        <v>238.8188713659279</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V29" t="n">
-        <v>330.668163659727</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W29" t="n">
-        <v>364.251682399026</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X29" t="n">
-        <v>380.9659483955799</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y29" t="n">
-        <v>381.2562908642337</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>88.0431457716974</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.74897568419725</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.8568349817317</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
-        <v>221.4822361759078</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
-        <v>264.29915052218</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V31" t="n">
-        <v>255.4758721527162</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W31" t="n">
-        <v>260.6079523890572</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X31" t="n">
-        <v>190.6898575773627</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y31" t="n">
-        <v>206.8173261679658</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.4479524106874</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C32" t="n">
-        <v>390.3523293227055</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D32" t="n">
-        <v>384.748275150713</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E32" t="n">
-        <v>394.5257978711152</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F32" t="n">
-        <v>401.1490924686922</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G32" t="n">
-        <v>251.368321370166</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H32" t="n">
-        <v>292.1283969414021</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>118.257248996683</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T32" t="n">
-        <v>204.3134037554527</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U32" t="n">
-        <v>238.8188713659279</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V32" t="n">
-        <v>330.668163659727</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W32" t="n">
-        <v>364.251682399026</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X32" t="n">
-        <v>380.9659483955799</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y32" t="n">
-        <v>381.2562908642337</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="33">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>170.1516938729469</v>
+        <v>100.2632562872659</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.74897568419725</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.8568349817317</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T34" t="n">
-        <v>221.4822361759078</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U34" t="n">
-        <v>264.29915052218</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>255.4758721527162</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W34" t="n">
-        <v>260.6079523890572</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X34" t="n">
-        <v>220.2894080617563</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y34" t="n">
-        <v>7.066081810625347</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.4479524106874</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C35" t="n">
-        <v>390.3523293227055</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D35" t="n">
-        <v>384.748275150713</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E35" t="n">
-        <v>394.5257978711152</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F35" t="n">
-        <v>401.1490924686922</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G35" t="n">
-        <v>181.5510917712255</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H35" t="n">
-        <v>292.1283969414021</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I35" t="n">
-        <v>69.81722959894047</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>118.257248996683</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T35" t="n">
-        <v>204.3134037554527</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U35" t="n">
-        <v>238.8188713659279</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V35" t="n">
-        <v>330.668163659727</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W35" t="n">
-        <v>364.251682399026</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X35" t="n">
-        <v>380.9659483955799</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y35" t="n">
-        <v>381.2562908642337</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D37" t="n">
-        <v>142.228682773162</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.74897568419725</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.8568349817317</v>
+        <v>103.1885574966856</v>
       </c>
       <c r="T37" t="n">
-        <v>221.4822361759078</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>264.29915052218</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V37" t="n">
-        <v>255.4758721527162</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W37" t="n">
-        <v>260.6079523890572</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X37" t="n">
-        <v>220.2894080617563</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.98909291041025</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.4479524106874</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C38" t="n">
-        <v>390.3523293227055</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D38" t="n">
-        <v>384.748275150713</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E38" t="n">
-        <v>394.5257978711152</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F38" t="n">
-        <v>401.1490924686922</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G38" t="n">
-        <v>388.969985808939</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H38" t="n">
-        <v>84.70950290368869</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I38" t="n">
-        <v>69.81722959894047</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>118.257248996683</v>
+        <v>104.4293227275031</v>
       </c>
       <c r="T38" t="n">
-        <v>204.3134037554527</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U38" t="n">
-        <v>238.8188713659279</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V38" t="n">
-        <v>330.668163659727</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W38" t="n">
-        <v>364.251682399026</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X38" t="n">
-        <v>380.9659483955799</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y38" t="n">
-        <v>381.2562908642337</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="39">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>170.1516938729469</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C40" t="n">
-        <v>153.7114232567436</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>131.1258909698522</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>33.12209635668106</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.74897568419725</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S40" t="n">
-        <v>168.8568349817317</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T40" t="n">
-        <v>221.4822361759078</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V40" t="n">
-        <v>255.4758721527162</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W40" t="n">
-        <v>260.6079523890572</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y40" t="n">
-        <v>206.8173261679658</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="41">
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>37.78331767565417</v>
       </c>
       <c r="T41" t="n">
-        <v>174.1372571702753</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3903,22 +3903,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.127201442763817</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>151.8323108963614</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>373.8316553010462</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3985,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>262.2537570519889</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>223.4899753452292</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>687.3747545467722</v>
+        <v>1298.098156350602</v>
       </c>
       <c r="C2" t="n">
-        <v>681.2905679004464</v>
+        <v>887.9735656638719</v>
       </c>
       <c r="D2" t="n">
-        <v>680.8670420339109</v>
+        <v>483.5096357569324</v>
       </c>
       <c r="E2" t="n">
-        <v>670.5672305912117</v>
+        <v>473.2098243142332</v>
       </c>
       <c r="F2" t="n">
-        <v>536.8451324196967</v>
+        <v>456.2198163083248</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>345.0748840925838</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>288.3518581880561</v>
       </c>
       <c r="K2" t="n">
-        <v>176.0078249962696</v>
+        <v>711.1608938517911</v>
       </c>
       <c r="L2" t="n">
-        <v>176.0078249962696</v>
+        <v>1133.969929515526</v>
       </c>
       <c r="M2" t="n">
-        <v>176.0078249962696</v>
+        <v>1133.969929515526</v>
       </c>
       <c r="N2" t="n">
-        <v>692.8507596625949</v>
+        <v>1133.969929515526</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>1244.953654661791</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>1667.762690325526</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>1667.762690325526</v>
       </c>
       <c r="R2" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="U2" t="n">
-        <v>1831.193789739612</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="V2" t="n">
-        <v>1481.356235076093</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="W2" t="n">
-        <v>1097.595934211262</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="X2" t="n">
-        <v>1097.595934211262</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="Y2" t="n">
-        <v>1097.595934211262</v>
+        <v>1708.319336015091</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>340.6609820511256</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>206.6659108000713</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>89.76875301946377</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>60.48824497727253</v>
       </c>
       <c r="K3" t="n">
-        <v>497.5713418949007</v>
+        <v>60.48824497727253</v>
       </c>
       <c r="L3" t="n">
-        <v>704.7239474634683</v>
+        <v>60.48824497727253</v>
       </c>
       <c r="M3" t="n">
-        <v>1221.566882129794</v>
+        <v>60.48824497727253</v>
       </c>
       <c r="N3" t="n">
-        <v>1221.566882129794</v>
+        <v>483.2972806410076</v>
       </c>
       <c r="O3" t="n">
-        <v>1738.409816796119</v>
+        <v>906.1063163047427</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1328.915351968478</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>1678.759816652461</v>
       </c>
       <c r="R3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.319336015091</v>
       </c>
       <c r="S3" t="n">
-        <v>1980.264271594411</v>
+        <v>1600.3293261294</v>
       </c>
       <c r="T3" t="n">
-        <v>1820.922407781419</v>
+        <v>1440.987462316408</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919638</v>
+        <v>1243.636651454627</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1029.925124447661</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>816.6919561839894</v>
       </c>
       <c r="X3" t="n">
-        <v>1020.300919787893</v>
+        <v>640.3659743228823</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>480.9640146867123</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>588.5395825927103</v>
+        <v>1123.500237021438</v>
       </c>
       <c r="C4" t="n">
-        <v>588.5395825927103</v>
+        <v>952.4068645831549</v>
       </c>
       <c r="D4" t="n">
-        <v>516.9144818452346</v>
+        <v>792.9122199060648</v>
       </c>
       <c r="E4" t="n">
-        <v>356.0036667135541</v>
+        <v>632.0014047743844</v>
       </c>
       <c r="F4" t="n">
-        <v>191.3725408241454</v>
+        <v>467.3702788849756</v>
       </c>
       <c r="G4" t="n">
-        <v>191.3725408241454</v>
+        <v>300.119887810519</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>150.5124326159757</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>34.16638672030182</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>48.24893612551234</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>202.8012638477503</v>
       </c>
       <c r="L4" t="n">
-        <v>470.2970630371111</v>
+        <v>462.6983641278109</v>
       </c>
       <c r="M4" t="n">
-        <v>759.5611194776044</v>
+        <v>751.9624205683042</v>
       </c>
       <c r="N4" t="n">
-        <v>1040.399901871855</v>
+        <v>1032.801202962554</v>
       </c>
       <c r="O4" t="n">
-        <v>1299.960512198329</v>
+        <v>1292.361813289029</v>
       </c>
       <c r="P4" t="n">
-        <v>1505.635952447941</v>
+        <v>1498.037253538641</v>
       </c>
       <c r="Q4" t="n">
-        <v>1571.163982250452</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="T4" t="n">
-        <v>1145.223475107064</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="U4" t="n">
-        <v>862.4253276531883</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="V4" t="n">
-        <v>588.5395825927103</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="W4" t="n">
-        <v>588.5395825927103</v>
+        <v>1348.235935632674</v>
       </c>
       <c r="X4" t="n">
-        <v>588.5395825927103</v>
+        <v>1348.235935632674</v>
       </c>
       <c r="Y4" t="n">
-        <v>588.5395825927103</v>
+        <v>1123.500237021438</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>484.2909016982387</v>
+        <v>333.2842014970884</v>
       </c>
       <c r="C5" t="n">
-        <v>74.16631101150881</v>
+        <v>327.2000148507626</v>
       </c>
       <c r="D5" t="n">
-        <v>73.74278514497341</v>
+        <v>326.7764889842272</v>
       </c>
       <c r="E5" t="n">
-        <v>63.44297370227418</v>
+        <v>316.476677541528</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636579</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>537.7254774811266</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M5" t="n">
-        <v>1054.568412147452</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N5" t="n">
-        <v>1571.411346813777</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4600,19 +4600,19 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1730.766722221062</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>1380.929167557543</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W5" t="n">
-        <v>997.1688666927112</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X5" t="n">
-        <v>997.1688666927112</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="Y5" t="n">
-        <v>894.5120813627282</v>
+        <v>339.4649771211738</v>
       </c>
     </row>
     <row r="6">
@@ -4625,37 +4625,37 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>158.3214934345131</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>158.3214934345131</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M6" t="n">
-        <v>675.1644281008383</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N6" t="n">
         <v>1192.007362767164</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>278.4281042659014</v>
+        <v>799.2174189668733</v>
       </c>
       <c r="C7" t="n">
-        <v>278.4281042659014</v>
+        <v>628.1240465285898</v>
       </c>
       <c r="D7" t="n">
-        <v>278.4281042659014</v>
+        <v>468.6294018514998</v>
       </c>
       <c r="E7" t="n">
-        <v>206.3962115190108</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1485.891263925851</v>
+        <v>1490.722488463279</v>
       </c>
       <c r="U7" t="n">
-        <v>1203.093116471976</v>
+        <v>1490.722488463279</v>
       </c>
       <c r="V7" t="n">
-        <v>929.2073714114977</v>
+        <v>1490.722488463279</v>
       </c>
       <c r="W7" t="n">
-        <v>929.2073714114977</v>
+        <v>1211.652823972153</v>
       </c>
       <c r="X7" t="n">
-        <v>690.8635092711811</v>
+        <v>1211.652823972153</v>
       </c>
       <c r="Y7" t="n">
-        <v>466.1278106599458</v>
+        <v>986.9171253609177</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.3313057386429</v>
+        <v>2082.073505856017</v>
       </c>
       <c r="C8" t="n">
-        <v>882.247119092317</v>
+        <v>2075.989319209691</v>
       </c>
       <c r="D8" t="n">
-        <v>881.8235932257816</v>
+        <v>1683.124257321394</v>
       </c>
       <c r="E8" t="n">
-        <v>467.4833777426783</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>216.5644706858345</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>216.5644706858345</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L8" t="n">
-        <v>216.5644706858345</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M8" t="n">
-        <v>216.5644706858345</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N8" t="n">
-        <v>733.4074053521598</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O8" t="n">
-        <v>1250.250340018485</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P8" t="n">
         <v>1767.09327468481</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1089.945929615741</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>894.5120813627283</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y8" t="n">
-        <v>894.5120813627283</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>52.35970185319792</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
+        <v>234.5779431922353</v>
+      </c>
+      <c r="L9" t="n">
+        <v>234.5779431922353</v>
+      </c>
+      <c r="M9" t="n">
         <v>508.1659581184966</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1025.008892784822</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1025.008892784822</v>
       </c>
       <c r="N9" t="n">
         <v>1025.008892784822</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.1714896368677</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="C10" t="n">
-        <v>238.0781171985842</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="D10" t="n">
-        <v>209.0154767040586</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>209.0154767040586</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>209.0154767040586</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4995,19 +4995,19 @@
         <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>1059.950756782464</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="V10" t="n">
-        <v>1059.950756782464</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="W10" t="n">
-        <v>1059.950756782464</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="X10" t="n">
-        <v>821.6068946421474</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="Y10" t="n">
-        <v>596.8711960309121</v>
+        <v>800.5109188153651</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G11" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5123,25 +5123,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>705.4904009953962</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>1548.467481689963</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N12" t="n">
-        <v>1548.467481689963</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O12" t="n">
-        <v>1548.467481689963</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>479.5419440130791</v>
+        <v>844.3014383065603</v>
       </c>
       <c r="C13" t="n">
-        <v>434.4375921661943</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="D13" t="n">
-        <v>434.4375921661943</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="E13" t="n">
-        <v>434.4375921661943</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="F13" t="n">
-        <v>299.6033771114704</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114704</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H13" t="n">
         <v>179.7928327516118</v>
@@ -5205,7 +5205,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M13" t="n">
         <v>927.8555407749236</v>
@@ -5223,28 +5223,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T13" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U13" t="n">
-        <v>1181.450483200945</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="V13" t="n">
-        <v>937.3616489751518</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="W13" t="n">
-        <v>688.0888953187109</v>
+        <v>1240.654773653611</v>
       </c>
       <c r="X13" t="n">
-        <v>479.5419440130791</v>
+        <v>1032.107822347979</v>
       </c>
       <c r="Y13" t="n">
-        <v>479.5419440130791</v>
+        <v>844.3014383065603</v>
       </c>
     </row>
     <row r="14">
@@ -5360,25 +5360,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>355.6459363114127</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>355.6459363114127</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.623017005979</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N15" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O15" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>375.9731143336099</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="C16" t="n">
-        <v>375.9731143336099</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>375.9731143336099</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>375.9731143336099</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>299.6033771114704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>299.6033771114704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5442,7 +5442,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M16" t="n">
         <v>927.8555407749236</v>
@@ -5460,28 +5460,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T16" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U16" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V16" t="n">
-        <v>937.3616489751518</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W16" t="n">
-        <v>937.3616489751518</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="X16" t="n">
-        <v>728.81469766952</v>
+        <v>535.0177515029949</v>
       </c>
       <c r="Y16" t="n">
-        <v>533.8759098929695</v>
+        <v>340.0789637264444</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G17" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H17" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5600,22 +5600,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>1402.950983437843</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="M18" t="n">
-        <v>2110.173374178493</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>321.6391484537195</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="C19" t="n">
-        <v>321.6391484537195</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="D19" t="n">
-        <v>224.3576019876185</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5679,7 +5679,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M19" t="n">
         <v>927.8555407749236</v>
@@ -5709,16 +5709,16 @@
         <v>1181.450483200945</v>
       </c>
       <c r="V19" t="n">
-        <v>937.3616489751518</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W19" t="n">
-        <v>688.0888953187109</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X19" t="n">
-        <v>479.5419440130791</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y19" t="n">
-        <v>479.5419440130791</v>
+        <v>437.0568573512421</v>
       </c>
     </row>
     <row r="20">
@@ -5752,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5767,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T20" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V20" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>604.9866295102167</v>
       </c>
       <c r="L21" t="n">
-        <v>213.3947382540484</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.371818948615</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N21" t="n">
-        <v>1056.371818948615</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O21" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P21" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>365.6540635912172</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="C22" t="n">
-        <v>224.3576019876185</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="D22" t="n">
-        <v>224.3576019876185</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="G22" t="n">
         <v>93.2436976906228</v>
@@ -5916,7 +5916,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M22" t="n">
         <v>927.8555407749236</v>
@@ -5946,16 +5946,16 @@
         <v>1181.450483200945</v>
       </c>
       <c r="V22" t="n">
-        <v>937.3616489751518</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W22" t="n">
-        <v>688.0888953187109</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X22" t="n">
-        <v>688.0888953187109</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y22" t="n">
-        <v>493.1501075421604</v>
+        <v>284.6031562365289</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D23" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G23" t="n">
         <v>430.910136076462</v>
@@ -5989,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6004,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L24" t="n">
-        <v>754.331869609911</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M24" t="n">
-        <v>844.5103911440685</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="N24" t="n">
-        <v>844.5103911440685</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="O24" t="n">
-        <v>1548.467481689963</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>321.0892943552105</v>
+        <v>338.77102545249</v>
       </c>
       <c r="C25" t="n">
-        <v>179.7928327516118</v>
+        <v>197.4745638488913</v>
       </c>
       <c r="D25" t="n">
-        <v>179.7928327516118</v>
+        <v>197.4745638488913</v>
       </c>
       <c r="E25" t="n">
-        <v>179.7928327516118</v>
+        <v>197.4745638488913</v>
       </c>
       <c r="F25" t="n">
-        <v>179.7928327516118</v>
+        <v>197.4745638488913</v>
       </c>
       <c r="G25" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6153,7 +6153,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L25" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M25" t="n">
         <v>927.8555407749236</v>
@@ -6171,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T25" t="n">
-        <v>1434.451719820136</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.450483200945</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V25" t="n">
-        <v>937.3616489751518</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W25" t="n">
-        <v>688.0888953187109</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="X25" t="n">
-        <v>673.9308776911206</v>
+        <v>691.6126087884001</v>
       </c>
       <c r="Y25" t="n">
-        <v>478.9920899145701</v>
+        <v>496.6738210118496</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2228.872195796475</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>1834.576913652328</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D26" t="n">
-        <v>1445.942292287972</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E26" t="n">
-        <v>1047.431385347451</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>851.7443162252507</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G26" t="n">
-        <v>458.8453406606658</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H26" t="n">
-        <v>163.7661518309667</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4542.733117867823</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4336.355942357265</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U26" t="n">
-        <v>4095.124759159358</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V26" t="n">
-        <v>3761.116513038422</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3393.185520716173</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X26" t="n">
-        <v>3008.371431427709</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y26" t="n">
-        <v>2623.264066918382</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N27" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O27" t="n">
-        <v>1640.177868931084</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>393.589268175421</v>
+        <v>973.9991721489654</v>
       </c>
       <c r="C28" t="n">
-        <v>238.3252042797204</v>
+        <v>832.7027105453667</v>
       </c>
       <c r="D28" t="n">
-        <v>238.3252042797204</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>122.8405523984189</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K28" t="n">
-        <v>292.9071854232424</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L28" t="n">
-        <v>568.3185910058885</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M28" t="n">
-        <v>873.0969527489674</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N28" t="n">
-        <v>1169.450040445803</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O28" t="n">
-        <v>1444.524956074863</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P28" t="n">
-        <v>1665.714701627061</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q28" t="n">
-        <v>1746.757036732157</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1677.313626950139</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S28" t="n">
-        <v>1506.751167372633</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T28" t="n">
-        <v>1283.031736891918</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="U28" t="n">
-        <v>1016.062897980625</v>
+        <v>1570.929589710669</v>
       </c>
       <c r="V28" t="n">
-        <v>758.0064614627297</v>
+        <v>1326.840755484875</v>
       </c>
       <c r="W28" t="n">
-        <v>758.0064614627297</v>
+        <v>1326.840755484875</v>
       </c>
       <c r="X28" t="n">
-        <v>535.4919078649959</v>
+        <v>1326.840755484875</v>
       </c>
       <c r="Y28" t="n">
-        <v>393.589268175421</v>
+        <v>1131.901967708325</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2228.872195796475</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>1834.576913652328</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
-        <v>1445.942292287972</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E29" t="n">
-        <v>1256.94541972898</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>851.7443162252507</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G29" t="n">
-        <v>458.8453406606658</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H29" t="n">
-        <v>163.7661518309667</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4542.733117867823</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4336.355942357265</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U29" t="n">
-        <v>4095.124759159358</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V29" t="n">
-        <v>3761.116513038422</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W29" t="n">
-        <v>3393.185520716173</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X29" t="n">
-        <v>3008.371431427709</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y29" t="n">
-        <v>2623.264066918382</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>324.9649248943615</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>324.9649248943615</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M30" t="n">
-        <v>324.9649248943615</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N30" t="n">
-        <v>1198.623017005979</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O30" t="n">
-        <v>1198.623017005979</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P30" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="G31" t="n">
         <v>93.2436976906228</v>
@@ -6621,52 +6621,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>122.8405523984189</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K31" t="n">
-        <v>292.9071854232424</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L31" t="n">
-        <v>568.3185910058885</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M31" t="n">
-        <v>873.0969527489674</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N31" t="n">
-        <v>1169.450040445803</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O31" t="n">
-        <v>1444.524956074863</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P31" t="n">
-        <v>1665.714701627061</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q31" t="n">
-        <v>1746.757036732157</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1677.313626950139</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S31" t="n">
-        <v>1506.751167372633</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T31" t="n">
-        <v>1283.031736891918</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U31" t="n">
-        <v>1016.062897980625</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V31" t="n">
-        <v>758.0064614627297</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W31" t="n">
-        <v>494.766105514187</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="X31" t="n">
-        <v>302.1500877592752</v>
+        <v>535.0177515029949</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.2436976906228</v>
+        <v>340.0789637264444</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2228.872195796475</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C32" t="n">
-        <v>1834.576913652328</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D32" t="n">
-        <v>1445.942292287972</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E32" t="n">
-        <v>1047.431385347451</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F32" t="n">
-        <v>642.230281843722</v>
+        <v>809.8415093489457</v>
       </c>
       <c r="G32" t="n">
-        <v>388.322886520322</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6715,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4542.733117867823</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T32" t="n">
-        <v>4336.355942357265</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U32" t="n">
-        <v>4095.124759159358</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V32" t="n">
-        <v>3761.116513038422</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W32" t="n">
-        <v>3393.185520716173</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X32" t="n">
-        <v>3008.371431427709</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y32" t="n">
-        <v>2623.264066918382</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="33">
@@ -6785,22 +6785,22 @@
         <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>917.3518287999427</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M33" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.2436976906228</v>
+        <v>491.8041838938517</v>
       </c>
       <c r="C34" t="n">
-        <v>93.2436976906228</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H34" t="n">
         <v>93.2436976906228</v>
@@ -6858,52 +6858,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>122.8405523984189</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K34" t="n">
-        <v>292.9071854232424</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L34" t="n">
-        <v>568.3185910058885</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M34" t="n">
-        <v>873.0969527489674</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N34" t="n">
-        <v>1169.450040445803</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O34" t="n">
-        <v>1444.524956074863</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P34" t="n">
-        <v>1665.714701627061</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q34" t="n">
-        <v>1746.757036732157</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>1677.313626950139</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S34" t="n">
-        <v>1506.751167372633</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T34" t="n">
-        <v>1283.031736891918</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U34" t="n">
-        <v>1016.062897980625</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="V34" t="n">
-        <v>758.0064614627297</v>
+        <v>1245.838693084258</v>
       </c>
       <c r="W34" t="n">
-        <v>494.766105514187</v>
+        <v>996.5659394278177</v>
       </c>
       <c r="X34" t="n">
-        <v>272.2515519164533</v>
+        <v>788.018988122186</v>
       </c>
       <c r="Y34" t="n">
-        <v>265.1140955420843</v>
+        <v>593.0802003456355</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2228.872195796475</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C35" t="n">
-        <v>1834.576913652328</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D35" t="n">
-        <v>1445.942292287972</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E35" t="n">
-        <v>1047.431385347451</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F35" t="n">
-        <v>642.230281843722</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G35" t="n">
-        <v>458.8453406606658</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H35" t="n">
-        <v>163.7661518309667</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4542.733117867823</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T35" t="n">
-        <v>4336.355942357265</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U35" t="n">
-        <v>4095.124759159358</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V35" t="n">
-        <v>3761.116513038422</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W35" t="n">
-        <v>3393.185520716173</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X35" t="n">
-        <v>3008.371431427709</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y35" t="n">
-        <v>2623.264066918382</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>494.6659264600851</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>494.6659264600851</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>494.6659264600851</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>236.9090338251298</v>
+        <v>234.5401592942214</v>
       </c>
       <c r="C37" t="n">
-        <v>236.9090338251298</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
         <v>93.2436976906228</v>
@@ -7095,52 +7095,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>122.8405523984189</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K37" t="n">
-        <v>292.9071854232424</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L37" t="n">
-        <v>568.3185910058885</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M37" t="n">
-        <v>873.0969527489674</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N37" t="n">
-        <v>1169.450040445803</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O37" t="n">
-        <v>1444.524956074863</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P37" t="n">
-        <v>1665.714701627061</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q37" t="n">
-        <v>1746.757036732157</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R37" t="n">
-        <v>1677.313626950139</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S37" t="n">
-        <v>1506.751167372633</v>
+        <v>1752.043346625801</v>
       </c>
       <c r="T37" t="n">
-        <v>1283.031736891918</v>
+        <v>1542.291518437188</v>
       </c>
       <c r="U37" t="n">
-        <v>1016.062897980625</v>
+        <v>1289.290281817997</v>
       </c>
       <c r="V37" t="n">
-        <v>758.0064614627297</v>
+        <v>1045.201447592204</v>
       </c>
       <c r="W37" t="n">
-        <v>494.766105514187</v>
+        <v>795.9286939357632</v>
       </c>
       <c r="X37" t="n">
-        <v>272.2515519164533</v>
+        <v>587.3817426301315</v>
       </c>
       <c r="Y37" t="n">
-        <v>236.9090338251298</v>
+        <v>392.442954853581</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2228.872195796475</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C38" t="n">
-        <v>1834.576913652328</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D38" t="n">
-        <v>1445.942292287972</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E38" t="n">
-        <v>1047.431385347451</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>642.230281843722</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G38" t="n">
-        <v>249.3313062791371</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H38" t="n">
-        <v>163.7661518309667</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4542.733117867823</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T38" t="n">
-        <v>4336.355942357265</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U38" t="n">
-        <v>4095.124759159358</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V38" t="n">
-        <v>3761.116513038422</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W38" t="n">
-        <v>3393.185520716173</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X38" t="n">
-        <v>3008.371431427709</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y38" t="n">
-        <v>2623.264066918382</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>355.6459363114127</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>380.958156505366</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="C40" t="n">
-        <v>225.6940926096654</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="D40" t="n">
-        <v>225.6940926096654</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="E40" t="n">
-        <v>225.6940926096654</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>122.8405523984189</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K40" t="n">
-        <v>292.9071854232424</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L40" t="n">
-        <v>568.3185910058885</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M40" t="n">
-        <v>873.0969527489674</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N40" t="n">
-        <v>1169.450040445803</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O40" t="n">
-        <v>1444.524956074863</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P40" t="n">
-        <v>1665.714701627061</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q40" t="n">
-        <v>1746.757036732157</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1677.313626950139</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S40" t="n">
-        <v>1506.751167372633</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T40" t="n">
-        <v>1283.031736891918</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U40" t="n">
-        <v>1283.031736891918</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V40" t="n">
-        <v>1024.975300374022</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W40" t="n">
-        <v>761.7349444254799</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X40" t="n">
-        <v>761.7349444254799</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y40" t="n">
-        <v>552.8285543568275</v>
+        <v>284.6031562365289</v>
       </c>
     </row>
     <row r="41">
@@ -7414,7 +7414,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7438,19 +7438,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4624.019917181994</v>
       </c>
       <c r="T41" t="n">
-        <v>4351.007589961326</v>
+        <v>4401.813433128853</v>
       </c>
       <c r="U41" t="n">
-        <v>4093.947098220835</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V41" t="n">
-        <v>3744.109543557316</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W41" t="n">
-        <v>3360.349242692484</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
         <v>3360.349242692484</v>
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>182.7137268369972</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M42" t="n">
-        <v>182.7137268369972</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>1056.371818948615</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4063.35771140577</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C43" t="n">
-        <v>3892.264338967486</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>3732.769694290396</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4475.79311641105</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>4475.79311641105</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>4475.79311641105</v>
+        <v>1229.72788468579</v>
       </c>
       <c r="V43" t="n">
-        <v>4475.79311641105</v>
+        <v>955.8421396253117</v>
       </c>
       <c r="W43" t="n">
-        <v>4475.79311641105</v>
+        <v>676.772475134186</v>
       </c>
       <c r="X43" t="n">
-        <v>4475.79311641105</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y43" t="n">
-        <v>4251.057417799814</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2134.851174492981</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>1724.726583806251</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.262653899312</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7733,16 +7733,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M45" t="n">
-        <v>93.2436976906228</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N45" t="n">
-        <v>874.0699105066985</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
         <v>2139.732893541123</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3416.38242488042</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>3416.38242488042</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>3416.38242488042</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>3416.38242488042</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>3416.38242488042</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>4337.363427183242</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>4054.565279729366</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>4054.565279729366</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W46" t="n">
-        <v>4054.565279729366</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X46" t="n">
-        <v>3828.8178298857</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y46" t="n">
-        <v>3604.082131274464</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>224.7351163062146</v>
+        <v>516.2162236769899</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>522.5652320666177</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>205.2945485007983</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>520.7291972846569</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>77.95697441310173</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>265.3595799407153</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>480.2732273975228</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>484.8313130037728</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>481.3394690065766</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>590.1064824525349</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>298.736180582244</v>
       </c>
       <c r="M5" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
@@ -8239,7 +8239,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>173.5595280421012</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>249.8886267436438</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>270.21439869122</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8531,19 +8531,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>62.07087134908675</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>333.9158139669643</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,19 +8771,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>479.785075065536</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>234.5959412371211</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
@@ -8792,7 +8792,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>126.1180868837635</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>585.6215843269604</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,13 +9248,13 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>585.6215843269604</v>
       </c>
       <c r="M18" t="n">
-        <v>771.9303349915991</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
@@ -9266,7 +9266,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>377.9773729431616</v>
       </c>
       <c r="L21" t="n">
-        <v>177.4792112486527</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>55.82578278461539</v>
@@ -9725,13 +9725,13 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>148.6536994294856</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>695.0063011010592</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
@@ -9740,7 +9740,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>234.5959412371211</v>
       </c>
       <c r="P27" t="n">
-        <v>529.0025695961465</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,16 +10193,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>289.8876284449575</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>424.7983178153489</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
@@ -10211,10 +10211,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10433,10 +10433,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>428.1366196128907</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
@@ -10445,13 +10445,13 @@
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>461.5915225678817</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -10679,7 +10679,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
@@ -10688,7 +10688,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,13 +10904,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>126.4068279099972</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
@@ -10925,7 +10925,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>146.4882906253687</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,19 +11381,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>841.9067396726143</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -23418,19 +23418,19 @@
         <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
-        <v>95.23018865914673</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.989399898785</v>
+        <v>7.061079697780201</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>51.84035121586527</v>
       </c>
       <c r="D16" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
-        <v>57.87983305425851</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
-        <v>32.09202550254116</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037913</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.989399898785</v>
+        <v>150.929164103566</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.10268409233223</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
-        <v>136.078945437374</v>
+        <v>102.956849080693</v>
       </c>
       <c r="H22" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037913</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>32.89038794068817</v>
       </c>
       <c r="H25" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>192.4450443412611</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>207.4188940377135</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170.1516938729469</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>142.228682773162</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>147.3137991733576</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>149.9068717065549</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>132.4403651854408</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>99.51156997956001</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>177.9300055378991</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>260.6079523890572</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.33371287528666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>207.4188940377136</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>170.1516938729469</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>153.7114232567436</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
-        <v>142.228682773162</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
-        <v>143.6306915232066</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F31" t="n">
-        <v>147.3137991733576</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
-        <v>149.9068717065549</v>
+        <v>48.03579966567662</v>
       </c>
       <c r="H31" t="n">
-        <v>132.4403651854408</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>99.51156997956001</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>29.5995504843936</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>137.601664438773</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>69.81722959894047</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>56.06051131650001</v>
       </c>
       <c r="C34" t="n">
-        <v>153.7114232567436</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>142.228682773162</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E34" t="n">
-        <v>143.6306915232066</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
-        <v>147.3137991733576</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G34" t="n">
-        <v>149.9068717065549</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>132.4403651854408</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>99.51156997956001</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>199.7512443573405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4188940377134</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>170.1516938729469</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>153.7114232567436</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E37" t="n">
-        <v>143.6306915232066</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
-        <v>147.3137991733576</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G37" t="n">
-        <v>149.9068717065549</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H37" t="n">
-        <v>132.4403651854408</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>99.51156997956001</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>51.84035121586521</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.8282332575556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4188940377134</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D40" t="n">
-        <v>142.228682773162</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E40" t="n">
-        <v>143.6306915232066</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
-        <v>16.1879082035054</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G40" t="n">
-        <v>149.9068717065549</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
-        <v>132.4403651854408</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>99.51156997956001</v>
+        <v>52.56154735369804</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>264.29915052218</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>220.2894080617563</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>96.14494677818598</v>
       </c>
       <c r="T41" t="n">
-        <v>45.84716204233442</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>157.1745055375999</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>128.1378550829757</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>32.28731256679839</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26037,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>8.893130557884376</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>12.47044817368422</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>550194.2452395591</v>
+        <v>546752.9556880593</v>
       </c>
     </row>
     <row r="3">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>549299.9393161642</v>
+        <v>549299.9393161641</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>529761.8627115553</v>
+        <v>549299.9393161641</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>529761.8627115554</v>
+        <v>549299.9393161641</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>529761.8627115554</v>
+        <v>549299.9393161641</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>529761.8627115553</v>
+        <v>549299.9393161641</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>529761.8627115554</v>
+        <v>549299.9393161642</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>507619.6054769077</v>
+        <v>507619.6054769079</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>618953.0935233365</v>
+        <v>618953.0935233366</v>
       </c>
       <c r="C2" t="n">
-        <v>618953.0935233365</v>
+        <v>618953.0935233367</v>
       </c>
       <c r="D2" t="n">
-        <v>618953.0935233365</v>
+        <v>618953.0935233363</v>
       </c>
       <c r="E2" t="n">
+        <v>599827.8647507951</v>
+      </c>
+      <c r="F2" t="n">
         <v>599827.8647507952</v>
       </c>
-      <c r="F2" t="n">
-        <v>599827.8647507951</v>
-      </c>
       <c r="G2" t="n">
-        <v>599827.8647507951</v>
+        <v>599827.8647507952</v>
       </c>
       <c r="H2" t="n">
+        <v>599827.8647507949</v>
+      </c>
+      <c r="I2" t="n">
+        <v>599827.8647507949</v>
+      </c>
+      <c r="J2" t="n">
+        <v>599827.8647507949</v>
+      </c>
+      <c r="K2" t="n">
+        <v>599827.8647507954</v>
+      </c>
+      <c r="L2" t="n">
+        <v>599827.8647507947</v>
+      </c>
+      <c r="M2" t="n">
+        <v>599827.8647507948</v>
+      </c>
+      <c r="N2" t="n">
         <v>599827.8647507952</v>
-      </c>
-      <c r="I2" t="n">
-        <v>599827.8647507948</v>
-      </c>
-      <c r="J2" t="n">
-        <v>576626.3987828217</v>
-      </c>
-      <c r="K2" t="n">
-        <v>576626.398782822</v>
-      </c>
-      <c r="L2" t="n">
-        <v>576626.3987828217</v>
-      </c>
-      <c r="M2" t="n">
-        <v>576626.3987828216</v>
-      </c>
-      <c r="N2" t="n">
-        <v>576626.3987828216</v>
       </c>
       <c r="O2" t="n">
         <v>550332.4683166783</v>
       </c>
       <c r="P2" t="n">
-        <v>550332.4683166781</v>
+        <v>550332.4683166783</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>143124.2752108464</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>30686.46086668842</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>149131.6131716206</v>
+        <v>135342.0294691536</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24445.77426110973</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184088.9587438941</v>
+        <v>206246.6793413689</v>
       </c>
       <c r="C4" t="n">
         <v>184088.9587438941</v>
@@ -26426,34 +26426,34 @@
         <v>184088.9587438941</v>
       </c>
       <c r="E4" t="n">
-        <v>74729.89476777153</v>
+        <v>74729.89476777156</v>
       </c>
       <c r="F4" t="n">
-        <v>74729.89476777153</v>
+        <v>74729.89476777156</v>
       </c>
       <c r="G4" t="n">
-        <v>74729.89476777152</v>
+        <v>74729.89476777156</v>
       </c>
       <c r="H4" t="n">
-        <v>74729.89476777155</v>
+        <v>74729.89476777156</v>
       </c>
       <c r="I4" t="n">
-        <v>74729.89476777153</v>
+        <v>74729.89476777156</v>
       </c>
       <c r="J4" t="n">
-        <v>60756.14300804194</v>
+        <v>74729.89476777156</v>
       </c>
       <c r="K4" t="n">
-        <v>60756.14300804194</v>
+        <v>74729.89476777156</v>
       </c>
       <c r="L4" t="n">
-        <v>60756.14300804193</v>
+        <v>74729.89476777156</v>
       </c>
       <c r="M4" t="n">
-        <v>60756.14300804194</v>
+        <v>74729.89476777156</v>
       </c>
       <c r="N4" t="n">
-        <v>60756.14300804194</v>
+        <v>74729.89476777156</v>
       </c>
       <c r="O4" t="n">
         <v>44919.86535090264</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>59594.05390742938</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26493,19 +26493,19 @@
         <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
-        <v>72182.65684334106</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="K5" t="n">
-        <v>72182.65684334106</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="L5" t="n">
-        <v>72182.65684334106</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="M5" t="n">
-        <v>72182.65684334106</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="N5" t="n">
-        <v>72182.65684334106</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="O5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194539.5598078308</v>
+        <v>209988.0850636919</v>
       </c>
       <c r="C6" t="n">
-        <v>369495.0697009448</v>
+        <v>338808.6088342567</v>
       </c>
       <c r="D6" t="n">
-        <v>369495.0697009448</v>
+        <v>369495.0697009447</v>
       </c>
       <c r="E6" t="n">
-        <v>236023.8969256452</v>
+        <v>235973.5673762437</v>
       </c>
       <c r="F6" t="n">
-        <v>451752.8132061588</v>
+        <v>451702.4836567573</v>
       </c>
       <c r="G6" t="n">
-        <v>451752.8132061588</v>
+        <v>451702.4836567573</v>
       </c>
       <c r="H6" t="n">
-        <v>451752.8132061588</v>
+        <v>451702.4836567571</v>
       </c>
       <c r="I6" t="n">
-        <v>451752.8132061585</v>
+        <v>451702.4836567571</v>
       </c>
       <c r="J6" t="n">
-        <v>294555.9857598181</v>
+        <v>316360.4541876036</v>
       </c>
       <c r="K6" t="n">
-        <v>443687.598931439</v>
+        <v>427256.7093956478</v>
       </c>
       <c r="L6" t="n">
-        <v>443687.5989314388</v>
+        <v>451702.4836567569</v>
       </c>
       <c r="M6" t="n">
-        <v>283329.1484307559</v>
+        <v>291344.0331560743</v>
       </c>
       <c r="N6" t="n">
-        <v>443687.5989314386</v>
+        <v>451702.4836567573</v>
       </c>
       <c r="O6" t="n">
-        <v>434547.3927209023</v>
+        <v>434366.8121282532</v>
       </c>
       <c r="P6" t="n">
-        <v>434547.3927209021</v>
+        <v>434366.8121282532</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J2" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L2" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M2" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N2" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037728</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037728</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>94.98373636625274</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037728</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>94.98373636625274</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627594</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037728</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>94.98373636625274</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>284.4352307360494</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>294.6075183725126</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>64.24154521142495</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>86.99084849031814</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>63.10291361482086</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27627,7 +27627,7 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>234.9848782552363</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>295.2970888447077</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>87.99013316094199</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>157.5161727837633</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>11.48287933845643</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>203.1574540822548</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>129.1276841407388</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>23.12472639190929</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -28076,10 +28076,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C26" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D26" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E26" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F26" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G26" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H26" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I26" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T26" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U26" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V26" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W26" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X26" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y26" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C29" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D29" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E29" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F29" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G29" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H29" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I29" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T29" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U29" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V29" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W29" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X29" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y31" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C32" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D32" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E32" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F32" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G32" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H32" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I32" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T32" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U32" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V32" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W32" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X32" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C35" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D35" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E35" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F35" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G35" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H35" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I35" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T35" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U35" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V35" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W35" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X35" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y35" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="41">
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>135.5987266329975</v>
+        <v>427.0798340037728</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>427.0798340037728</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>112.1047728750151</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037728</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>26.58773561310172</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>209.2450561298663</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>427.0798340037728</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037728</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>427.0798340037728</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>203.2507825193992</v>
       </c>
       <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>117.7337452574859</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>176.5650354103358</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10.70163254908674</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>276.3515302285468</v>
+      </c>
+      <c r="N9" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>423.670551254687</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
@@ -35588,7 +35588,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>70.29230409914815</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>529.5070605161113</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
@@ -35825,7 +35825,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>529.5070605161113</v>
       </c>
       <c r="M18" t="n">
-        <v>714.3660512531817</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
@@ -36062,7 +36062,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.1515901585462</v>
       </c>
       <c r="L21" t="n">
-        <v>121.3646874378037</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
@@ -36299,7 +36299,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L23" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M23" t="n">
         <v>784.1601929209636</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>91.08941569106823</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>637.2548221010592</v>
       </c>
       <c r="P24" t="n">
         <v>567.3796893823536</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K25" t="n">
         <v>185.6124040720329</v>
@@ -36536,7 +36536,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="P27" t="n">
-        <v>474.7429345933427</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>29.89581283615762</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K28" t="n">
-        <v>171.784477802852</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L28" t="n">
-        <v>278.1933389723698</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M28" t="n">
-        <v>307.856931053615</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N28" t="n">
-        <v>299.346553229127</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O28" t="n">
-        <v>277.8534501303633</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P28" t="n">
-        <v>223.4239854062605</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.86094455060238</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>234.0618456603421</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>29.89581283615762</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K31" t="n">
-        <v>171.784477802852</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L31" t="n">
-        <v>278.1933389723698</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M31" t="n">
-        <v>307.856931053615</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N31" t="n">
-        <v>299.346553229127</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O31" t="n">
-        <v>277.8534501303633</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P31" t="n">
-        <v>223.4239854062605</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.86094455060238</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>372.0220958020416</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>29.89581283615762</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K34" t="n">
-        <v>171.784477802852</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L34" t="n">
-        <v>278.1933389723698</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M34" t="n">
-        <v>307.856931053615</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N34" t="n">
-        <v>299.346553229127</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O34" t="n">
-        <v>277.8534501303633</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P34" t="n">
-        <v>223.4239854062605</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.86094455060238</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>405.4769987570326</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,7 +37399,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
@@ -37408,7 +37408,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>29.89581283615762</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K37" t="n">
-        <v>171.784477802852</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L37" t="n">
-        <v>278.1933389723698</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M37" t="n">
-        <v>307.856931053615</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N37" t="n">
-        <v>299.346553229127</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O37" t="n">
-        <v>277.8534501303633</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P37" t="n">
-        <v>223.4239854062605</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.86094455060238</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>70.29230409914815</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>29.89581283615762</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K40" t="n">
-        <v>171.784477802852</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L40" t="n">
-        <v>278.1933389723698</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M40" t="n">
-        <v>307.856931053615</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N40" t="n">
-        <v>299.346553229127</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O40" t="n">
-        <v>277.8534501303633</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P40" t="n">
-        <v>223.4239854062605</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.86094455060238</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>90.37376681451964</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>788.7133462788644</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
